--- a/src/scripts/dados_teste_tratados.xlsx
+++ b/src/scripts/dados_teste_tratados.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biu\Desktop\mais-saude-lasac\src\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EFF73A-597A-495C-A55F-874C64E3572F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BE4DED-B416-4809-9CBD-00BCC00C2195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{DB55B064-27C8-4B64-A3DA-E21C502CFBD9}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="11295" xr2:uid="{DB55B064-27C8-4B64-A3DA-E21C502CFBD9}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$D$1:$D$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$D$1:$D$84</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1937" uniqueCount="883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="882">
   <si>
     <t>EMPRESA</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>SAMUEL PEREIRA FURTADO</t>
-  </si>
-  <si>
-    <t>nnbnbnb</t>
   </si>
   <si>
     <t>(87) 9913-7272</t>
@@ -2687,10 +2684,10 @@
     <t>active_at</t>
   </si>
   <si>
-    <t>0f446c02-cf4b-4fac-92a8-618f6dc84d65</t>
-  </si>
-  <si>
-    <t>e95a2da4-96c0-4277-b4c3-bcf8f2c5414a</t>
+    <t>cb2dcf67-cd0b-4e54-a266-4aef3b1e32e7</t>
+  </si>
+  <si>
+    <t>2f76e56a-aa27-49c0-8cda-1cf6b2566387</t>
   </si>
 </sst>
 </file>
@@ -3170,10 +3167,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D125C814-53C2-4852-B499-E8F042823506}">
-  <dimension ref="A1:AB85"/>
+  <dimension ref="A1:AB84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:N84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3209,114 +3206,114 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>865</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>863</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>856</v>
+      </c>
+      <c r="AA1" s="8" t="s">
         <v>879</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
         <v>857</v>
-      </c>
-      <c r="AA1" s="8" t="s">
-        <v>880</v>
-      </c>
-      <c r="AB1" s="8" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>7</v>
@@ -3335,22 +3332,22 @@
         <v>881</v>
       </c>
       <c r="O2" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="S2" s="3" t="s">
-        <v>303</v>
-      </c>
       <c r="T2" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="U2" s="4"/>
       <c r="V2" s="3" t="s">
@@ -3360,10 +3357,10 @@
         <v>1</v>
       </c>
       <c r="X2" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA2" s="4">
         <v>45804</v>
@@ -3371,34 +3368,34 @@
     </row>
     <row r="3" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>395</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>396</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="3" t="s">
@@ -3409,70 +3406,70 @@
         <v>881</v>
       </c>
       <c r="O3" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="S3" s="3" t="s">
-        <v>523</v>
-      </c>
       <c r="T3" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="U3" s="4"/>
       <c r="V3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="X3" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>516</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="3" t="s">
@@ -3483,22 +3480,22 @@
         <v>881</v>
       </c>
       <c r="O4" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="P4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="R4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>731</v>
-      </c>
       <c r="T4" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="U4" s="4"/>
       <c r="V4" s="3" t="s">
@@ -3508,45 +3505,45 @@
         <v>1</v>
       </c>
       <c r="X4" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>727</v>
-      </c>
       <c r="G5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="3" t="s">
@@ -3557,22 +3554,22 @@
         <v>881</v>
       </c>
       <c r="O5" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="P5" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="R5" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="S5" s="3" t="s">
-        <v>742</v>
-      </c>
       <c r="T5" s="4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="U5" s="4"/>
       <c r="V5" s="3" t="s">
@@ -3582,45 +3579,45 @@
         <v>1</v>
       </c>
       <c r="X5" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>733</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>735</v>
-      </c>
       <c r="G6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="3" t="s">
@@ -3631,22 +3628,22 @@
         <v>881</v>
       </c>
       <c r="O6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q6" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R6" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="S6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U6" s="4"/>
       <c r="V6" s="3" t="s">
@@ -3656,13 +3653,13 @@
         <v>1</v>
       </c>
       <c r="X6" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -3670,31 +3667,31 @@
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="3" t="s">
@@ -3705,22 +3702,22 @@
         <v>881</v>
       </c>
       <c r="O7" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="P7" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="R7" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="S7" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="S7" s="3" t="s">
-        <v>403</v>
-      </c>
       <c r="T7" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="U7" s="4"/>
       <c r="V7" s="3" t="s">
@@ -3730,45 +3727,45 @@
         <v>1</v>
       </c>
       <c r="X7" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>686</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>1</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="3" t="s">
@@ -3779,22 +3776,22 @@
         <v>881</v>
       </c>
       <c r="O8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="Q8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="R8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="S8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="T8" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U8" s="4"/>
       <c r="V8" s="3" t="s">
@@ -3804,27 +3801,27 @@
         <v>1</v>
       </c>
       <c r="X8" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>1</v>
@@ -3836,39 +3833,39 @@
         <v>1</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="9" t="s">
         <v>881</v>
       </c>
       <c r="O9" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="P9" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="Q9" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="R9" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="S9" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>168</v>
-      </c>
       <c r="T9" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="U9" s="4"/>
       <c r="V9" s="3" t="s">
@@ -3878,45 +3875,45 @@
         <v>1</v>
       </c>
       <c r="X9" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="3" t="s">
@@ -3927,22 +3924,22 @@
         <v>881</v>
       </c>
       <c r="O10" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="P10" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="Q10" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="R10" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="S10" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>692</v>
-      </c>
       <c r="T10" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="U10" s="4"/>
       <c r="V10" s="3" t="s">
@@ -3952,45 +3949,45 @@
         <v>1</v>
       </c>
       <c r="X10" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA10" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="3" t="s">
@@ -4001,19 +3998,19 @@
         <v>881</v>
       </c>
       <c r="O11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P11" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="Q11" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="R11" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="R11" s="3" t="s">
+      <c r="S11" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="T11" s="4" t="s">
         <v>1</v>
@@ -4026,45 +4023,45 @@
         <v>1</v>
       </c>
       <c r="X11" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F12" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>613</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>614</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="3" t="s">
@@ -4075,14 +4072,14 @@
         <v>881</v>
       </c>
       <c r="O12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="Q12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>1</v>
       </c>
@@ -4090,7 +4087,7 @@
         <v>1</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U12" s="4"/>
       <c r="V12" s="3" t="s">
@@ -4100,45 +4097,45 @@
         <v>1</v>
       </c>
       <c r="X12" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y12" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA12" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>717</v>
-      </c>
       <c r="G13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>7</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="3" t="s">
@@ -4149,22 +4146,22 @@
         <v>881</v>
       </c>
       <c r="O13" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="P13" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="Q13" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="Q13" s="3" t="s">
+      <c r="R13" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="R13" s="3" t="s">
+      <c r="S13" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="S13" s="3" t="s">
-        <v>110</v>
-      </c>
       <c r="T13" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U13" s="4"/>
       <c r="V13" s="3" t="s">
@@ -4174,33 +4171,33 @@
         <v>1</v>
       </c>
       <c r="X13" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>1</v>
@@ -4212,7 +4209,7 @@
         <v>7</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="3" t="s">
@@ -4223,22 +4220,22 @@
         <v>881</v>
       </c>
       <c r="O14" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>802</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>803</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>804</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>805</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>806</v>
-      </c>
       <c r="T14" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="U14" s="4"/>
       <c r="V14" s="3" t="s">
@@ -4248,33 +4245,33 @@
         <v>1</v>
       </c>
       <c r="X14" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y14" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA14" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>1</v>
@@ -4286,7 +4283,7 @@
         <v>7</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="3" t="s">
@@ -4297,7 +4294,7 @@
         <v>881</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>1</v>
@@ -4322,36 +4319,36 @@
         <v>1</v>
       </c>
       <c r="X15" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y15" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA15" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>591</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>592</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>6</v>
@@ -4360,7 +4357,7 @@
         <v>7</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="3" t="s">
@@ -4371,22 +4368,22 @@
         <v>881</v>
       </c>
       <c r="O16" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q16" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="P16" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q16" s="3" t="s">
+      <c r="R16" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="R16" s="3" t="s">
+      <c r="S16" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="S16" s="3" t="s">
-        <v>283</v>
-      </c>
       <c r="T16" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="U16" s="4"/>
       <c r="V16" s="3" t="s">
@@ -4396,33 +4393,33 @@
         <v>1</v>
       </c>
       <c r="X16" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA16" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>315</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>316</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>1</v>
@@ -4434,7 +4431,7 @@
         <v>7</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="3" t="s">
@@ -4445,14 +4442,14 @@
         <v>881</v>
       </c>
       <c r="O17" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="P17" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="P17" s="3" t="s">
+      <c r="Q17" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>673</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>1</v>
       </c>
@@ -4460,7 +4457,7 @@
         <v>1</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="U17" s="4"/>
       <c r="V17" s="3" t="s">
@@ -4470,36 +4467,36 @@
         <v>1</v>
       </c>
       <c r="X17" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y17" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA17" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>6</v>
@@ -4508,7 +4505,7 @@
         <v>7</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="3" t="s">
@@ -4519,61 +4516,61 @@
         <v>881</v>
       </c>
       <c r="O18" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="P18" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="P18" s="3" t="s">
+      <c r="Q18" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="Q18" s="3" t="s">
+      <c r="R18" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="R18" s="3" t="s">
+      <c r="S18" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>510</v>
-      </c>
       <c r="T18" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="U18" s="4"/>
       <c r="V18" s="3" t="s">
         <v>1</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="X18" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y18" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA18" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>134</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>6</v>
@@ -4582,7 +4579,7 @@
         <v>7</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="3" t="s">
@@ -4593,22 +4590,22 @@
         <v>881</v>
       </c>
       <c r="O19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P19" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="P19" s="3" t="s">
+      <c r="Q19" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="Q19" s="3" t="s">
+      <c r="R19" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="R19" s="3" t="s">
+      <c r="S19" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="S19" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="T19" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U19" s="4"/>
       <c r="V19" s="3" t="s">
@@ -4618,36 +4615,36 @@
         <v>1</v>
       </c>
       <c r="X19" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA19" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>6</v>
@@ -4656,7 +4653,7 @@
         <v>7</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K20" s="4"/>
       <c r="L20" s="3" t="s">
@@ -4667,22 +4664,22 @@
         <v>881</v>
       </c>
       <c r="O20" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="P20" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="P20" s="3" t="s">
+      <c r="Q20" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="Q20" s="3" t="s">
+      <c r="R20" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="R20" s="3" t="s">
+      <c r="S20" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>254</v>
-      </c>
       <c r="T20" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="U20" s="4"/>
       <c r="V20" s="3" t="s">
@@ -4692,36 +4689,36 @@
         <v>1</v>
       </c>
       <c r="X20" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y20" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA20" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F21" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>365</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>366</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>6</v>
@@ -4730,7 +4727,7 @@
         <v>7</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="3" t="s">
@@ -4766,27 +4763,27 @@
         <v>1</v>
       </c>
       <c r="X21" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y21" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA21" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>2</v>
@@ -4817,22 +4814,22 @@
         <v>881</v>
       </c>
       <c r="O22" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="P22" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="Q22" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="R22" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="R22" s="3" t="s">
+      <c r="S22" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>203</v>
-      </c>
       <c r="T22" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="U22" s="4"/>
       <c r="V22" s="3" t="s">
@@ -4842,10 +4839,10 @@
         <v>1</v>
       </c>
       <c r="X22" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y22" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA22" s="4" t="s">
         <v>8</v>
@@ -4856,22 +4853,22 @@
         <v>1</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>6</v>
@@ -4880,7 +4877,7 @@
         <v>7</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K23" s="4"/>
       <c r="L23" s="3" t="s">
@@ -4891,22 +4888,22 @@
         <v>881</v>
       </c>
       <c r="O23" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="P23" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="P23" s="3" t="s">
+      <c r="Q23" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="Q23" s="3" t="s">
+      <c r="R23" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="R23" s="3" t="s">
+      <c r="S23" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>211</v>
-      </c>
       <c r="T23" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="U23" s="4"/>
       <c r="V23" s="3" t="s">
@@ -4916,36 +4913,36 @@
         <v>1</v>
       </c>
       <c r="X23" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y23" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA23" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>6</v>
@@ -4954,7 +4951,7 @@
         <v>7</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K24" s="4"/>
       <c r="L24" s="3" t="s">
@@ -4965,22 +4962,22 @@
         <v>881</v>
       </c>
       <c r="O24" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="P24" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="P24" s="3" t="s">
+      <c r="Q24" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="Q24" s="3" t="s">
+      <c r="R24" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="R24" s="3" t="s">
+      <c r="S24" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="T24" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="U24" s="4"/>
       <c r="V24" s="3" t="s">
@@ -4990,33 +4987,33 @@
         <v>1</v>
       </c>
       <c r="X24" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y24" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA24" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>1</v>
@@ -5028,7 +5025,7 @@
         <v>7</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K25" s="4"/>
       <c r="L25" s="3" t="s">
@@ -5039,22 +5036,22 @@
         <v>881</v>
       </c>
       <c r="O25" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="P25" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="P25" s="3" t="s">
+      <c r="Q25" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="Q25" s="3" t="s">
+      <c r="R25" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="R25" s="3" t="s">
+      <c r="S25" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="S25" s="3" t="s">
-        <v>227</v>
-      </c>
       <c r="T25" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="U25" s="4"/>
       <c r="V25" s="3" t="s">
@@ -5064,30 +5061,30 @@
         <v>1</v>
       </c>
       <c r="X25" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y25" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA25" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>1</v>
@@ -5102,7 +5099,7 @@
         <v>7</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K26" s="4"/>
       <c r="L26" s="3" t="s">
@@ -5113,22 +5110,22 @@
         <v>881</v>
       </c>
       <c r="O26" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="P26" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="P26" s="3" t="s">
+      <c r="Q26" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="Q26" s="3" t="s">
+      <c r="R26" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="R26" s="3" t="s">
+      <c r="S26" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>234</v>
-      </c>
       <c r="T26" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="U26" s="4"/>
       <c r="V26" s="3" t="s">
@@ -5138,36 +5135,36 @@
         <v>1</v>
       </c>
       <c r="X26" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y26" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA26" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F27" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>6</v>
@@ -5176,7 +5173,7 @@
         <v>7</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K27" s="4"/>
       <c r="L27" s="3" t="s">
@@ -5187,22 +5184,22 @@
         <v>881</v>
       </c>
       <c r="O27" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="P27" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="P27" s="3" t="s">
+      <c r="Q27" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="Q27" s="3" t="s">
+      <c r="R27" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="R27" s="3" t="s">
+      <c r="S27" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>242</v>
-      </c>
       <c r="T27" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="U27" s="4"/>
       <c r="V27" s="3" t="s">
@@ -5212,33 +5209,33 @@
         <v>1</v>
       </c>
       <c r="X27" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y27" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA27" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E28" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>1</v>
@@ -5250,7 +5247,7 @@
         <v>7</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K28" s="4"/>
       <c r="L28" s="3" t="s">
@@ -5261,58 +5258,58 @@
         <v>881</v>
       </c>
       <c r="O28" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="P28" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="P28" s="3" t="s">
+      <c r="Q28" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="Q28" s="3" t="s">
+      <c r="R28" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="R28" s="3" t="s">
+      <c r="S28" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="S28" s="3" t="s">
-        <v>274</v>
-      </c>
       <c r="T28" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="U28" s="4"/>
       <c r="V28" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X28" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y28" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA28" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E29" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>1</v>
@@ -5324,7 +5321,7 @@
         <v>7</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K29" s="4"/>
       <c r="L29" s="3" t="s">
@@ -5335,58 +5332,58 @@
         <v>881</v>
       </c>
       <c r="O29" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="P29" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>292</v>
-      </c>
       <c r="T29" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="U29" s="4"/>
       <c r="V29" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W29" s="2" t="s">
         <v>1</v>
       </c>
       <c r="X29" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y29" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA29" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E30" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>214</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>1</v>
@@ -5398,7 +5395,7 @@
         <v>7</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K30" s="4"/>
       <c r="L30" s="3" t="s">
@@ -5409,58 +5406,58 @@
         <v>881</v>
       </c>
       <c r="O30" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="P30" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="P30" s="3" t="s">
+      <c r="Q30" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="Q30" s="3" t="s">
+      <c r="R30" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="R30" s="3" t="s">
+      <c r="S30" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="S30" s="3" t="s">
-        <v>312</v>
-      </c>
       <c r="T30" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="U30" s="4"/>
       <c r="V30" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="X30" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y30" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA30" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E31" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>222</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>1</v>
@@ -5472,7 +5469,7 @@
         <v>7</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K31" s="4"/>
       <c r="L31" s="3" t="s">
@@ -5483,58 +5480,58 @@
         <v>881</v>
       </c>
       <c r="O31" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="P31" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="P31" s="3" t="s">
+      <c r="Q31" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="Q31" s="3" t="s">
+      <c r="R31" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="R31" s="3" t="s">
+      <c r="S31" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="S31" s="3" t="s">
-        <v>321</v>
-      </c>
       <c r="T31" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="U31" s="4"/>
       <c r="V31" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W31" s="2" t="s">
         <v>1</v>
       </c>
       <c r="X31" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y31" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA31" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>1</v>
@@ -5546,7 +5543,7 @@
         <v>7</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K32" s="4"/>
       <c r="L32" s="3" t="s">
@@ -5557,11 +5554,11 @@
         <v>881</v>
       </c>
       <c r="O32" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="P32" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>329</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>1</v>
       </c>
@@ -5572,43 +5569,43 @@
         <v>1</v>
       </c>
       <c r="T32" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="U32" s="4"/>
       <c r="V32" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W32" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="X32" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y32" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA32" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E33" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>237</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>1</v>
@@ -5620,7 +5617,7 @@
         <v>7</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K33" s="4"/>
       <c r="L33" s="3" t="s">
@@ -5631,61 +5628,61 @@
         <v>881</v>
       </c>
       <c r="O33" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="P33" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="P33" s="3" t="s">
+      <c r="Q33" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="Q33" s="3" t="s">
+      <c r="R33" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="R33" s="3" t="s">
+      <c r="S33" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>338</v>
-      </c>
       <c r="T33" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="U33" s="4"/>
       <c r="V33" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W33" s="2" t="s">
         <v>1</v>
       </c>
       <c r="X33" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y33" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA33" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="F34" s="3" t="s">
+      <c r="G34" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>267</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>6</v>
@@ -5694,7 +5691,7 @@
         <v>7</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K34" s="4"/>
       <c r="L34" s="3" t="s">
@@ -5705,22 +5702,22 @@
         <v>881</v>
       </c>
       <c r="O34" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="P34" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="P34" s="3" t="s">
+      <c r="Q34" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="Q34" s="3" t="s">
+      <c r="R34" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="R34" s="3" t="s">
+      <c r="S34" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="S34" s="3" t="s">
-        <v>346</v>
-      </c>
       <c r="T34" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="U34" s="4"/>
       <c r="V34" s="3" t="s">
@@ -5730,36 +5727,36 @@
         <v>1</v>
       </c>
       <c r="X34" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y34" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA34" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>287</v>
-      </c>
       <c r="G35" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>6</v>
@@ -5768,7 +5765,7 @@
         <v>7</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="3" t="s">
@@ -5779,22 +5776,22 @@
         <v>881</v>
       </c>
       <c r="O35" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="P35" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="P35" s="3" t="s">
+      <c r="Q35" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="Q35" s="3" t="s">
+      <c r="R35" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>352</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>1</v>
       </c>
       <c r="T35" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="U35" s="4"/>
       <c r="V35" s="3" t="s">
@@ -5804,36 +5801,36 @@
         <v>1</v>
       </c>
       <c r="X35" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y35" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA35" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>307</v>
-      </c>
       <c r="G36" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>6</v>
@@ -5842,7 +5839,7 @@
         <v>7</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K36" s="4"/>
       <c r="L36" s="3" t="s">
@@ -5853,22 +5850,22 @@
         <v>881</v>
       </c>
       <c r="O36" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="P36" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="P36" s="3" t="s">
+      <c r="Q36" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="Q36" s="3" t="s">
+      <c r="R36" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="R36" s="3" t="s">
-        <v>360</v>
-      </c>
       <c r="S36" s="3" t="s">
         <v>1</v>
       </c>
       <c r="T36" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="U36" s="4"/>
       <c r="V36" s="3" t="s">
@@ -5878,36 +5875,36 @@
         <v>1</v>
       </c>
       <c r="X36" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y36" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA36" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F37" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>326</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>327</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>6</v>
@@ -5916,7 +5913,7 @@
         <v>7</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K37" s="4"/>
       <c r="L37" s="3" t="s">
@@ -5927,22 +5924,22 @@
         <v>881</v>
       </c>
       <c r="O37" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="P37" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="P37" s="3" t="s">
+      <c r="Q37" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="Q37" s="3" t="s">
+      <c r="R37" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="R37" s="3" t="s">
+      <c r="S37" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="S37" s="3" t="s">
-        <v>371</v>
-      </c>
       <c r="T37" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="U37" s="4"/>
       <c r="V37" s="3" t="s">
@@ -5952,33 +5949,33 @@
         <v>1</v>
       </c>
       <c r="X37" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y37" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA37" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E38" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>332</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>333</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>1</v>
@@ -5990,7 +5987,7 @@
         <v>7</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K38" s="4"/>
       <c r="L38" s="3" t="s">
@@ -6001,58 +5998,58 @@
         <v>881</v>
       </c>
       <c r="O38" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="P38" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="P38" s="3" t="s">
+      <c r="Q38" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="Q38" s="3" t="s">
+      <c r="R38" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="R38" s="3" t="s">
+      <c r="S38" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="S38" s="3" t="s">
-        <v>382</v>
-      </c>
       <c r="T38" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U38" s="4"/>
       <c r="V38" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W38" s="2" t="s">
         <v>1</v>
       </c>
       <c r="X38" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y38" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA38" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E39" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>340</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>341</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>1</v>
@@ -6064,7 +6061,7 @@
         <v>7</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K39" s="4"/>
       <c r="L39" s="3" t="s">
@@ -6075,58 +6072,58 @@
         <v>881</v>
       </c>
       <c r="O39" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="P39" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="P39" s="3" t="s">
+      <c r="Q39" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="Q39" s="3" t="s">
+      <c r="R39" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="R39" s="3" t="s">
+      <c r="S39" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="S39" s="3" t="s">
-        <v>391</v>
-      </c>
       <c r="T39" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="U39" s="4"/>
       <c r="V39" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W39" s="2" t="s">
         <v>1</v>
       </c>
       <c r="X39" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y39" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA39" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="40" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>1</v>
@@ -6138,7 +6135,7 @@
         <v>7</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K40" s="4"/>
       <c r="L40" s="3" t="s">
@@ -6149,61 +6146,61 @@
         <v>881</v>
       </c>
       <c r="O40" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="P40" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="P40" s="3" t="s">
+      <c r="Q40" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="Q40" s="3" t="s">
+      <c r="R40" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="R40" s="3" t="s">
+      <c r="S40" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="S40" s="3" t="s">
-        <v>416</v>
-      </c>
       <c r="T40" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="U40" s="4"/>
       <c r="V40" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W40" s="2" t="s">
         <v>1</v>
       </c>
       <c r="X40" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y40" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:27" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E41" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="G41" s="3" t="s">
         <v>355</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>356</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>6</v>
@@ -6212,7 +6209,7 @@
         <v>7</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="3" t="s">
@@ -6223,61 +6220,61 @@
         <v>881</v>
       </c>
       <c r="O41" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="P41" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="P41" s="3" t="s">
+      <c r="Q41" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="Q41" s="3" t="s">
+      <c r="R41" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="R41" s="3" t="s">
+      <c r="S41" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>429</v>
-      </c>
       <c r="T41" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="U41" s="4"/>
       <c r="V41" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W41" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="X41" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y41" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA41" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:27" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>375</v>
-      </c>
       <c r="G42" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>6</v>
@@ -6286,7 +6283,7 @@
         <v>7</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K42" s="4"/>
       <c r="L42" s="3" t="s">
@@ -6297,61 +6294,61 @@
         <v>881</v>
       </c>
       <c r="O42" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="P42" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="P42" s="3" t="s">
+      <c r="Q42" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="Q42" s="3" t="s">
+      <c r="R42" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="R42" s="3" t="s">
+      <c r="S42" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>441</v>
-      </c>
       <c r="T42" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="U42" s="4"/>
       <c r="V42" s="3" t="s">
         <v>1</v>
       </c>
       <c r="W42" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="X42" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y42" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA42" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="43" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>386</v>
-      </c>
       <c r="G43" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>6</v>
@@ -6360,7 +6357,7 @@
         <v>7</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="3" t="s">
@@ -6371,61 +6368,61 @@
         <v>881</v>
       </c>
       <c r="O43" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="P43" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="P43" s="3" t="s">
+      <c r="Q43" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="Q43" s="3" t="s">
+      <c r="R43" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="R43" s="3" t="s">
+      <c r="S43" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>453</v>
-      </c>
       <c r="T43" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="U43" s="4"/>
       <c r="V43" s="3" t="s">
         <v>1</v>
       </c>
       <c r="W43" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="X43" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y43" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA43" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F44" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="G44" s="3" t="s">
         <v>408</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>409</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>6</v>
@@ -6434,7 +6431,7 @@
         <v>7</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="3" t="s">
@@ -6445,61 +6442,61 @@
         <v>881</v>
       </c>
       <c r="O44" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="P44" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="P44" s="3" t="s">
+      <c r="Q44" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="Q44" s="3" t="s">
+      <c r="R44" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="R44" s="3" t="s">
+      <c r="S44" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>466</v>
-      </c>
       <c r="T44" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="U44" s="4"/>
       <c r="V44" s="3" t="s">
         <v>1</v>
       </c>
       <c r="W44" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="X44" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y44" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA44" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="45" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F45" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>421</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>422</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>6</v>
@@ -6508,7 +6505,7 @@
         <v>7</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K45" s="4"/>
       <c r="L45" s="3" t="s">
@@ -6519,61 +6516,61 @@
         <v>881</v>
       </c>
       <c r="O45" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="P45" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="P45" s="3" t="s">
+      <c r="Q45" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="Q45" s="3" t="s">
+      <c r="R45" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="R45" s="3" t="s">
+      <c r="S45" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>477</v>
-      </c>
       <c r="T45" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="U45" s="4"/>
       <c r="V45" s="3" t="s">
         <v>1</v>
       </c>
       <c r="W45" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="X45" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y45" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA45" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="46" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>434</v>
-      </c>
       <c r="G46" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>6</v>
@@ -6582,7 +6579,7 @@
         <v>7</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K46" s="4"/>
       <c r="L46" s="3" t="s">
@@ -6593,14 +6590,14 @@
         <v>881</v>
       </c>
       <c r="O46" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="P46" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="P46" s="3" t="s">
+      <c r="Q46" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>488</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>1</v>
       </c>
@@ -6608,46 +6605,46 @@
         <v>1</v>
       </c>
       <c r="T46" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="U46" s="4"/>
       <c r="V46" s="3" t="s">
         <v>1</v>
       </c>
       <c r="W46" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="X46" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y46" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA46" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="47" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E47" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="G47" s="3" t="s">
         <v>445</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>446</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>6</v>
@@ -6656,7 +6653,7 @@
         <v>7</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K47" s="4"/>
       <c r="L47" s="3" t="s">
@@ -6667,14 +6664,14 @@
         <v>881</v>
       </c>
       <c r="O47" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>497</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>1</v>
       </c>
@@ -6682,43 +6679,43 @@
         <v>1</v>
       </c>
       <c r="T47" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="U47" s="4"/>
       <c r="V47" s="3" t="s">
         <v>1</v>
       </c>
       <c r="W47" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="X47" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y47" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA47" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="48" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>1</v>
@@ -6730,7 +6727,7 @@
         <v>7</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K48" s="4"/>
       <c r="L48" s="3" t="s">
@@ -6741,58 +6738,58 @@
         <v>881</v>
       </c>
       <c r="O48" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="P48" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="P48" s="3" t="s">
+      <c r="Q48" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="Q48" s="3" t="s">
+      <c r="R48" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="R48" s="3" t="s">
+      <c r="S48" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>532</v>
-      </c>
       <c r="T48" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="U48" s="4"/>
       <c r="V48" s="3" t="s">
         <v>1</v>
       </c>
       <c r="W48" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="X48" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y48" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA48" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="49" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E49" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>469</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>470</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>1</v>
@@ -6804,7 +6801,7 @@
         <v>7</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K49" s="4"/>
       <c r="L49" s="3" t="s">
@@ -6815,58 +6812,58 @@
         <v>881</v>
       </c>
       <c r="O49" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="P49" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="P49" s="3" t="s">
+      <c r="Q49" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="Q49" s="3" t="s">
+      <c r="R49" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="R49" s="3" t="s">
+      <c r="S49" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>541</v>
-      </c>
       <c r="T49" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="U49" s="4"/>
       <c r="V49" s="3" t="s">
         <v>1</v>
       </c>
       <c r="W49" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="X49" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y49" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA49" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>1</v>
@@ -6878,7 +6875,7 @@
         <v>7</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K50" s="4"/>
       <c r="L50" s="3" t="s">
@@ -6889,22 +6886,22 @@
         <v>881</v>
       </c>
       <c r="O50" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="P50" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="P50" s="3" t="s">
+      <c r="Q50" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="Q50" s="3" t="s">
+      <c r="R50" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="R50" s="3" t="s">
+      <c r="S50" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="S50" s="3" t="s">
-        <v>552</v>
-      </c>
       <c r="T50" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="U50" s="4"/>
       <c r="V50" s="3" t="s">
@@ -6914,33 +6911,33 @@
         <v>1</v>
       </c>
       <c r="X50" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y50" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA50" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>492</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>493</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>1</v>
@@ -6952,7 +6949,7 @@
         <v>7</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K51" s="4"/>
       <c r="L51" s="3" t="s">
@@ -6963,22 +6960,22 @@
         <v>881</v>
       </c>
       <c r="O51" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="P51" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="P51" s="3" t="s">
+      <c r="Q51" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="Q51" s="3" t="s">
+      <c r="R51" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="R51" s="3" t="s">
+      <c r="S51" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="S51" s="3" t="s">
-        <v>562</v>
-      </c>
       <c r="T51" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="U51" s="4"/>
       <c r="V51" s="3" t="s">
@@ -6988,36 +6985,36 @@
         <v>1</v>
       </c>
       <c r="X51" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y51" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA51" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="52" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>527</v>
-      </c>
       <c r="G52" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>6</v>
@@ -7026,7 +7023,7 @@
         <v>7</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K52" s="4"/>
       <c r="L52" s="3" t="s">
@@ -7037,22 +7034,22 @@
         <v>881</v>
       </c>
       <c r="O52" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="P52" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="P52" s="3" t="s">
+      <c r="Q52" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="Q52" s="3" t="s">
+      <c r="R52" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="R52" s="3" t="s">
+      <c r="S52" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>569</v>
-      </c>
       <c r="T52" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="U52" s="4"/>
       <c r="V52" s="3" t="s">
@@ -7062,33 +7059,33 @@
         <v>1</v>
       </c>
       <c r="X52" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y52" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA52" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>535</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>536</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>1</v>
@@ -7100,7 +7097,7 @@
         <v>7</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K53" s="4"/>
       <c r="L53" s="3" t="s">
@@ -7111,22 +7108,22 @@
         <v>881</v>
       </c>
       <c r="O53" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="P53" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="Q53" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="P53" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="Q53" s="3" t="s">
+      <c r="R53" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="R53" s="3" t="s">
+      <c r="S53" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="S53" s="3" t="s">
-        <v>576</v>
-      </c>
       <c r="T53" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="U53" s="4"/>
       <c r="V53" s="3" t="s">
@@ -7136,33 +7133,33 @@
         <v>1</v>
       </c>
       <c r="X53" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y53" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA53" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E54" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>543</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>544</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>1</v>
@@ -7174,7 +7171,7 @@
         <v>7</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K54" s="4"/>
       <c r="L54" s="3" t="s">
@@ -7185,55 +7182,55 @@
         <v>881</v>
       </c>
       <c r="O54" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="P54" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="P54" s="3" t="s">
+      <c r="Q54" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="Q54" s="3" t="s">
+      <c r="R54" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="R54" s="3" t="s">
+      <c r="S54" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>587</v>
-      </c>
       <c r="T54" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="U54" s="4"/>
       <c r="V54" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="W54" s="2" t="s">
         <v>1</v>
       </c>
       <c r="X54" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y54" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA54" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="55" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>1</v>
@@ -7248,7 +7245,7 @@
         <v>7</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="K55" s="4"/>
       <c r="L55" s="3" t="s">
@@ -7259,52 +7256,52 @@
         <v>881</v>
       </c>
       <c r="O55" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="P55" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="P55" s="3" t="s">
+      <c r="Q55" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="Q55" s="3" t="s">
+      <c r="R55" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="R55" s="3" t="s">
+      <c r="S55" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="S55" s="3" t="s">
-        <v>599</v>
-      </c>
       <c r="T55" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="U55" s="4"/>
       <c r="V55" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="W55" s="2" t="s">
         <v>1</v>
       </c>
       <c r="X55" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y55" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA55" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="56" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>1</v>
@@ -7322,7 +7319,7 @@
         <v>7</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="K56" s="4"/>
       <c r="L56" s="3" t="s">
@@ -7333,58 +7330,58 @@
         <v>881</v>
       </c>
       <c r="O56" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="P56" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="P56" s="3" t="s">
+      <c r="Q56" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="Q56" s="3" t="s">
+      <c r="R56" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="R56" s="3" t="s">
-        <v>608</v>
-      </c>
       <c r="S56" s="3" t="s">
         <v>1</v>
       </c>
       <c r="T56" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="U56" s="4"/>
       <c r="V56" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="W56" s="2" t="s">
         <v>1</v>
       </c>
       <c r="X56" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y56" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA56" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E57" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="F57" s="3" t="s">
         <v>571</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>572</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>1</v>
@@ -7396,7 +7393,7 @@
         <v>7</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K57" s="4"/>
       <c r="L57" s="3" t="s">
@@ -7407,58 +7404,58 @@
         <v>881</v>
       </c>
       <c r="O57" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="P57" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="P57" s="3" t="s">
+      <c r="Q57" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="Q57" s="3" t="s">
+      <c r="R57" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="R57" s="3" t="s">
+      <c r="S57" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>631</v>
-      </c>
       <c r="T57" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="U57" s="4"/>
       <c r="V57" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="W57" s="2" t="s">
         <v>1</v>
       </c>
       <c r="X57" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y57" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA57" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="58" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>579</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>580</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>1</v>
@@ -7470,7 +7467,7 @@
         <v>7</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="K58" s="4"/>
       <c r="L58" s="3" t="s">
@@ -7481,58 +7478,58 @@
         <v>881</v>
       </c>
       <c r="O58" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="P58" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="P58" s="3" t="s">
+      <c r="Q58" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="Q58" s="3" t="s">
+      <c r="R58" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="R58" s="3" t="s">
+      <c r="S58" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>644</v>
-      </c>
       <c r="T58" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="U58" s="4"/>
       <c r="V58" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="W58" s="2" t="s">
         <v>1</v>
       </c>
       <c r="X58" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y58" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA58" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E59" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>601</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>602</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>1</v>
@@ -7544,7 +7541,7 @@
         <v>7</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K59" s="4"/>
       <c r="L59" s="3" t="s">
@@ -7555,22 +7552,22 @@
         <v>881</v>
       </c>
       <c r="O59" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="P59" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="P59" s="3" t="s">
+      <c r="Q59" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="Q59" s="3" t="s">
+      <c r="R59" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="R59" s="3" t="s">
+      <c r="S59" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>665</v>
-      </c>
       <c r="T59" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="U59" s="4"/>
       <c r="V59" s="3" t="s">
@@ -7580,36 +7577,36 @@
         <v>1</v>
       </c>
       <c r="X59" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y59" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA59" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="60" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F60" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>624</v>
-      </c>
       <c r="G60" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>6</v>
@@ -7618,7 +7615,7 @@
         <v>7</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="K60" s="4"/>
       <c r="L60" s="3" t="s">
@@ -7629,22 +7626,22 @@
         <v>881</v>
       </c>
       <c r="O60" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="P60" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="P60" s="3" t="s">
+      <c r="Q60" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="Q60" s="3" t="s">
+      <c r="R60" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="R60" s="3" t="s">
+      <c r="S60" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>684</v>
-      </c>
       <c r="T60" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="U60" s="4"/>
       <c r="V60" s="3" t="s">
@@ -7654,33 +7651,33 @@
         <v>1</v>
       </c>
       <c r="X60" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y60" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA60" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="61" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D61" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="F61" s="3" t="s">
         <v>636</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>637</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>1</v>
@@ -7692,7 +7689,7 @@
         <v>7</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="K61" s="4"/>
       <c r="L61" s="3" t="s">
@@ -7703,58 +7700,58 @@
         <v>881</v>
       </c>
       <c r="O61" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="P61" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="P61" s="3" t="s">
+      <c r="Q61" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="Q61" s="3" t="s">
+      <c r="R61" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="R61" s="3" t="s">
+      <c r="S61" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="S61" s="3" t="s">
-        <v>703</v>
-      </c>
       <c r="T61" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="U61" s="4"/>
       <c r="V61" s="3" t="s">
         <v>1</v>
       </c>
       <c r="W61" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="X61" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y61" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA61" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B62" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="F62" s="3" t="s">
         <v>657</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>658</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>1</v>
@@ -7766,7 +7763,7 @@
         <v>7</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K62" s="4"/>
       <c r="L62" s="3" t="s">
@@ -7777,22 +7774,22 @@
         <v>881</v>
       </c>
       <c r="O62" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="P62" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="P62" s="3" t="s">
+      <c r="Q62" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="Q62" s="3" t="s">
+      <c r="R62" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="R62" s="3" t="s">
+      <c r="S62" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>713</v>
-      </c>
       <c r="T62" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="U62" s="4"/>
       <c r="V62" s="3" t="s">
@@ -7802,33 +7799,33 @@
         <v>1</v>
       </c>
       <c r="X62" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y62" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA62" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="63" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B63" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="F63" s="3" t="s">
         <v>676</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>677</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>1</v>
@@ -7840,7 +7837,7 @@
         <v>7</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="K63" s="4"/>
       <c r="L63" s="3" t="s">
@@ -7851,22 +7848,22 @@
         <v>881</v>
       </c>
       <c r="O63" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="P63" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="P63" s="3" t="s">
+      <c r="Q63" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="Q63" s="3" t="s">
+      <c r="R63" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="R63" s="3" t="s">
+      <c r="S63" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="S63" s="3" t="s">
-        <v>753</v>
-      </c>
       <c r="T63" s="4" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="U63" s="4"/>
       <c r="V63" s="3" t="s">
@@ -7876,36 +7873,36 @@
         <v>1</v>
       </c>
       <c r="X63" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y63" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA63" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="F64" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>696</v>
-      </c>
       <c r="G64" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>6</v>
@@ -7914,7 +7911,7 @@
         <v>7</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="K64" s="4"/>
       <c r="L64" s="3" t="s">
@@ -7925,22 +7922,22 @@
         <v>881</v>
       </c>
       <c r="O64" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="P64" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="P64" s="3" t="s">
+      <c r="Q64" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="Q64" s="3" t="s">
+      <c r="R64" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="R64" s="3" t="s">
+      <c r="S64" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="S64" s="3" t="s">
-        <v>766</v>
-      </c>
       <c r="T64" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="U64" s="4"/>
       <c r="V64" s="3" t="s">
@@ -7950,33 +7947,33 @@
         <v>1</v>
       </c>
       <c r="X64" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y64" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA64" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="65" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E65" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="F65" s="3" t="s">
         <v>706</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>707</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>1</v>
@@ -7999,22 +7996,22 @@
         <v>881</v>
       </c>
       <c r="O65" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="P65" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="P65" s="3" t="s">
+      <c r="Q65" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="Q65" s="3" t="s">
+      <c r="R65" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="R65" s="3" t="s">
+      <c r="S65" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="S65" s="3" t="s">
-        <v>777</v>
-      </c>
       <c r="T65" s="4" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="U65" s="4"/>
       <c r="V65" s="3" t="s">
@@ -8024,10 +8021,10 @@
         <v>1</v>
       </c>
       <c r="X65" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y65" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA65" s="4" t="s">
         <v>1</v>
@@ -8035,22 +8032,22 @@
     </row>
     <row r="66" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B66" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="F66" s="3" t="s">
         <v>745</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>744</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>746</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>1</v>
@@ -8062,7 +8059,7 @@
         <v>7</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="K66" s="4"/>
       <c r="L66" s="3" t="s">
@@ -8073,14 +8070,14 @@
         <v>881</v>
       </c>
       <c r="O66" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="P66" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="P66" s="3" t="s">
+      <c r="Q66" s="3" t="s">
         <v>785</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>786</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>1</v>
       </c>
@@ -8088,7 +8085,7 @@
         <v>1</v>
       </c>
       <c r="T66" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="U66" s="4"/>
       <c r="V66" s="3" t="s">
@@ -8098,36 +8095,36 @@
         <v>1</v>
       </c>
       <c r="X66" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y66" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA66" s="4" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B67" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="D67" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="F67" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="F67" s="3" t="s">
+      <c r="G67" s="3" t="s">
         <v>758</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>759</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>6</v>
@@ -8136,7 +8133,7 @@
         <v>7</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K67" s="4"/>
       <c r="L67" s="3" t="s">
@@ -8147,22 +8144,22 @@
         <v>881</v>
       </c>
       <c r="O67" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="P67" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="P67" s="3" t="s">
+      <c r="Q67" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R67" s="3" t="s">
         <v>794</v>
       </c>
-      <c r="Q67" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="R67" s="3" t="s">
+      <c r="S67" s="3" t="s">
         <v>795</v>
       </c>
-      <c r="S67" s="3" t="s">
-        <v>796</v>
-      </c>
       <c r="T67" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="U67" s="4"/>
       <c r="V67" s="3" t="s">
@@ -8172,33 +8169,33 @@
         <v>1</v>
       </c>
       <c r="X67" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y67" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA67" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B68" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="F68" s="3" t="s">
         <v>769</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>768</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>770</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>1</v>
@@ -8210,7 +8207,7 @@
         <v>7</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="K68" s="4"/>
       <c r="L68" s="3" t="s">
@@ -8221,22 +8218,22 @@
         <v>881</v>
       </c>
       <c r="O68" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="P68" s="3" t="s">
         <v>814</v>
       </c>
-      <c r="P68" s="3" t="s">
+      <c r="Q68" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="Q68" s="3" t="s">
+      <c r="R68" s="3" t="s">
         <v>816</v>
       </c>
-      <c r="R68" s="3" t="s">
+      <c r="S68" s="3" t="s">
         <v>817</v>
       </c>
-      <c r="S68" s="3" t="s">
-        <v>818</v>
-      </c>
       <c r="T68" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="U68" s="4"/>
       <c r="V68" s="3" t="s">
@@ -8246,36 +8243,36 @@
         <v>1</v>
       </c>
       <c r="X68" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y68" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA68" s="4" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="69" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="F69" s="3" t="s">
         <v>780</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>779</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>781</v>
-      </c>
       <c r="G69" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>6</v>
@@ -8284,7 +8281,7 @@
         <v>7</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="K69" s="4"/>
       <c r="L69" s="3" t="s">
@@ -8295,22 +8292,22 @@
         <v>881</v>
       </c>
       <c r="O69" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="P69" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="P69" s="3" t="s">
+      <c r="Q69" s="3" t="s">
         <v>826</v>
       </c>
-      <c r="Q69" s="3" t="s">
+      <c r="R69" s="3" t="s">
         <v>827</v>
       </c>
-      <c r="R69" s="3" t="s">
+      <c r="S69" s="3" t="s">
         <v>828</v>
       </c>
-      <c r="S69" s="3" t="s">
-        <v>829</v>
-      </c>
       <c r="T69" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="U69" s="4"/>
       <c r="V69" s="3" t="s">
@@ -8320,33 +8317,33 @@
         <v>1</v>
       </c>
       <c r="X69" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y69" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA69" s="4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B70" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="F70" s="3" t="s">
         <v>789</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>810</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>788</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>790</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>1</v>
@@ -8358,7 +8355,7 @@
         <v>7</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="K70" s="4"/>
       <c r="L70" s="3" t="s">
@@ -8369,22 +8366,22 @@
         <v>881</v>
       </c>
       <c r="O70" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="P70" s="3" t="s">
         <v>836</v>
       </c>
-      <c r="P70" s="3" t="s">
+      <c r="Q70" s="3" t="s">
         <v>837</v>
       </c>
-      <c r="Q70" s="3" t="s">
+      <c r="R70" s="3" t="s">
         <v>838</v>
       </c>
-      <c r="R70" s="3" t="s">
+      <c r="S70" s="3" t="s">
         <v>839</v>
       </c>
-      <c r="S70" s="3" t="s">
-        <v>840</v>
-      </c>
       <c r="T70" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="U70" s="4"/>
       <c r="V70" s="3" t="s">
@@ -8394,36 +8391,36 @@
         <v>1</v>
       </c>
       <c r="X70" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y70" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA70" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="71" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>6</v>
@@ -8432,7 +8429,7 @@
         <v>7</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="K71" s="4"/>
       <c r="L71" s="3" t="s">
@@ -8443,22 +8440,22 @@
         <v>881</v>
       </c>
       <c r="O71" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="P71" s="3" t="s">
         <v>845</v>
       </c>
-      <c r="P71" s="3" t="s">
+      <c r="Q71" s="3" t="s">
         <v>846</v>
       </c>
-      <c r="Q71" s="3" t="s">
+      <c r="R71" s="3" t="s">
         <v>847</v>
       </c>
-      <c r="R71" s="3" t="s">
+      <c r="S71" s="3" t="s">
         <v>848</v>
       </c>
-      <c r="S71" s="3" t="s">
-        <v>849</v>
-      </c>
       <c r="T71" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="U71" s="4"/>
       <c r="V71" s="3" t="s">
@@ -8468,33 +8465,33 @@
         <v>1</v>
       </c>
       <c r="X71" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y71" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA71" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B72" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="F72" s="3" t="s">
         <v>821</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>820</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>822</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>1</v>
@@ -8506,7 +8503,7 @@
         <v>7</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K72" s="4"/>
       <c r="L72" s="3" t="s">
@@ -8517,22 +8514,22 @@
         <v>881</v>
       </c>
       <c r="O72" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="P72" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="P72" s="3" t="s">
+      <c r="Q72" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="Q72" s="3" t="s">
+      <c r="R72" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="R72" s="3" t="s">
+      <c r="S72" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>621</v>
-      </c>
       <c r="T72" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="U72" s="4"/>
       <c r="V72" s="3" t="s">
@@ -8542,33 +8539,33 @@
         <v>1</v>
       </c>
       <c r="X72" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y72" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA72" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B73" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="F73" s="3" t="s">
         <v>832</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>831</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>833</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>1</v>
@@ -8580,7 +8577,7 @@
         <v>7</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="K73" s="4"/>
       <c r="L73" s="3" t="s">
@@ -8591,22 +8588,22 @@
         <v>881</v>
       </c>
       <c r="O73" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="P73" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="P73" s="3" t="s">
+      <c r="Q73" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="Q73" s="3" t="s">
+      <c r="R73" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="R73" s="3" t="s">
+      <c r="S73" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="S73" s="3" t="s">
-        <v>724</v>
-      </c>
       <c r="T73" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="U73" s="4"/>
       <c r="V73" s="3" t="s">
@@ -8616,36 +8613,36 @@
         <v>1</v>
       </c>
       <c r="X73" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y73" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA73" s="4" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>6</v>
@@ -8654,7 +8651,7 @@
         <v>7</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="K74" s="4"/>
       <c r="L74" s="3" t="s">
@@ -8667,19 +8664,19 @@
         <v>881</v>
       </c>
       <c r="O74" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P74" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P74" s="3" t="s">
+      <c r="Q74" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q74" s="3" t="s">
+      <c r="R74" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R74" s="3" t="s">
+      <c r="S74" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="S74" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="T74" s="4" t="s">
         <v>1</v>
@@ -8692,45 +8689,45 @@
         <v>1</v>
       </c>
       <c r="X74" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y74" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA74" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="75" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B75" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F75" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="F75" s="3" t="s">
+      <c r="G75" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H75" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>247</v>
       </c>
       <c r="I75" s="3" t="s">
         <v>7</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K75" s="4"/>
       <c r="L75" s="3" t="s">
@@ -8741,96 +8738,96 @@
         <v>881</v>
       </c>
       <c r="O75" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="P75" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="P75" s="3" t="s">
+      <c r="Q75" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="Q75" s="3" t="s">
+      <c r="R75" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="R75" s="3" t="s">
+      <c r="S75" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="S75" s="3" t="s">
-        <v>191</v>
-      </c>
       <c r="T75" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U75" s="4"/>
       <c r="V75" s="3" t="s">
         <v>1</v>
       </c>
       <c r="W75" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="X75" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y75" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA75" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="76" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B76" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F76" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F76" s="3" t="s">
+      <c r="G76" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H76" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H76" s="3" t="s">
+      <c r="I76" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="J76" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K76" s="4"/>
       <c r="L76" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M76" s="5"/>
       <c r="N76" s="9" t="s">
         <v>881</v>
       </c>
       <c r="O76" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="P76" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="P76" s="3" t="s">
+      <c r="Q76" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="Q76" s="3" t="s">
+      <c r="R76" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="R76" s="3" t="s">
+      <c r="S76" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>654</v>
-      </c>
       <c r="T76" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="U76" s="4"/>
       <c r="V76" s="3" t="s">
@@ -8840,45 +8837,45 @@
         <v>1</v>
       </c>
       <c r="X76" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y76" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA76" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F77" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H77" s="3" t="s">
         <v>502</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>503</v>
       </c>
       <c r="I77" s="3" t="s">
         <v>7</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K77" s="4"/>
       <c r="L77" s="3" t="s">
@@ -8889,70 +8886,70 @@
         <v>881</v>
       </c>
       <c r="O77" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="P77" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="P77" s="3" t="s">
+      <c r="Q77" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="Q77" s="3" t="s">
+      <c r="R77" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="R77" s="3" t="s">
+      <c r="S77" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="S77" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="T77" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U77" s="4"/>
       <c r="V77" s="3" t="s">
         <v>1</v>
       </c>
       <c r="W77" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="X77" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y77" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA77" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="78" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B78" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="F78" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="F78" s="3" t="s">
+      <c r="G78" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="I78" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="G78" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="I78" s="3" t="s">
-        <v>649</v>
-      </c>
       <c r="J78" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="K78" s="4"/>
       <c r="L78" s="3" t="s">
@@ -8963,70 +8960,70 @@
         <v>881</v>
       </c>
       <c r="O78" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="P78" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="P78" s="3" t="s">
+      <c r="Q78" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="Q78" s="3" t="s">
+      <c r="R78" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="R78" s="3" t="s">
+      <c r="S78" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="S78" s="3" t="s">
-        <v>178</v>
-      </c>
       <c r="T78" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="U78" s="4"/>
       <c r="V78" s="3" t="s">
         <v>1</v>
       </c>
       <c r="W78" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="X78" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y78" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA78" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B79" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F79" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="F79" s="3" t="s">
+      <c r="G79" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H79" s="3" t="s">
         <v>669</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>670</v>
       </c>
       <c r="I79" s="3" t="s">
         <v>7</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K79" s="4"/>
       <c r="L79" s="3" t="s">
@@ -9037,22 +9034,22 @@
         <v>881</v>
       </c>
       <c r="O79" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="P79" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="P79" s="3" t="s">
+      <c r="Q79" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="Q79" s="3" t="s">
+      <c r="R79" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="R79" s="3" t="s">
+      <c r="S79" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="S79" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="T79" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U79" s="4"/>
       <c r="V79" s="3" t="s">
@@ -9062,45 +9059,45 @@
         <v>1</v>
       </c>
       <c r="X79" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y79" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA79" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="80" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B80" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="D80" s="3" t="s">
+      <c r="E80" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F80" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="E80" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="F80" s="3" t="s">
+      <c r="G80" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H80" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="G80" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H80" s="3" t="s">
+      <c r="I80" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J80" s="4" t="s">
         <v>260</v>
-      </c>
-      <c r="I80" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J80" s="4" t="s">
-        <v>261</v>
       </c>
       <c r="K80" s="4"/>
       <c r="L80" s="3" t="s">
@@ -9111,22 +9108,22 @@
         <v>881</v>
       </c>
       <c r="O80" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="P80" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="P80" s="3" t="s">
+      <c r="Q80" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="Q80" s="3" t="s">
+      <c r="R80" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="R80" s="3" t="s">
+      <c r="S80" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="S80" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="T80" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="U80" s="4"/>
       <c r="V80" s="3" t="s">
@@ -9136,10 +9133,10 @@
         <v>1</v>
       </c>
       <c r="X80" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y80" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA80" s="4">
         <v>43417</v>
@@ -9147,34 +9144,34 @@
     </row>
     <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B81" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="D81" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="C81" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>258</v>
-      </c>
       <c r="E81" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F81" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="G81" s="3" t="s">
         <v>1</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>7</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K81" s="4"/>
       <c r="L81" s="3" t="s">
@@ -9185,22 +9182,22 @@
         <v>881</v>
       </c>
       <c r="O81" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="P81" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="P81" s="3" t="s">
+      <c r="Q81" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="Q81" s="3" t="s">
+      <c r="R81" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="R81" s="3" t="s">
+      <c r="S81" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>118</v>
-      </c>
       <c r="T81" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U81" s="4"/>
       <c r="V81" s="3" t="s">
@@ -9210,45 +9207,45 @@
         <v>1</v>
       </c>
       <c r="X81" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y81" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA81" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F82" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H82" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H82" s="3" t="s">
-        <v>298</v>
       </c>
       <c r="I82" s="3" t="s">
         <v>7</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K82" s="4"/>
       <c r="L82" s="3" t="s">
@@ -9284,45 +9281,45 @@
         <v>1</v>
       </c>
       <c r="X82" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y82" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA82" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="83" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B83" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="F83" s="3" t="s">
         <v>799</v>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>798</v>
-      </c>
-      <c r="F83" s="3" t="s">
+      <c r="G83" s="3" t="s">
         <v>800</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>801</v>
-      </c>
       <c r="H83" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>7</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="K83" s="4"/>
       <c r="L83" s="3" t="s">
@@ -9333,22 +9330,22 @@
         <v>881</v>
       </c>
       <c r="O83" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="P83" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="P83" s="3" t="s">
+      <c r="Q83" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="Q83" s="3" t="s">
+      <c r="R83" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="R83" s="3" t="s">
+      <c r="S83" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="T83" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U83" s="4"/>
       <c r="V83" s="3" t="s">
@@ -9358,45 +9355,45 @@
         <v>1</v>
       </c>
       <c r="X83" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y83" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA83" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="84" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F84" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G84" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="G84" s="3" t="s">
+      <c r="H84" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="H84" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="I84" s="3" t="s">
         <v>7</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K84" s="4"/>
       <c r="L84" s="3" t="s">
@@ -9407,22 +9404,22 @@
         <v>881</v>
       </c>
       <c r="O84" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="P84" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="P84" s="3" t="s">
+      <c r="Q84" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="Q84" s="3" t="s">
+      <c r="R84" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="R84" s="3" t="s">
+      <c r="S84" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="S84" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="T84" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U84" s="4"/>
       <c r="V84" s="3" t="s">
@@ -9432,30 +9429,19 @@
         <v>1</v>
       </c>
       <c r="X84" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y84" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA84" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="X85" s="10" t="s">
-        <v>882</v>
-      </c>
-      <c r="Y85" s="2" t="s">
-        <v>856</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D85" xr:uid="{D125C814-53C2-4852-B499-E8F042823506}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N2:N94">
-    <sortCondition ref="N2:N94"/>
+  <autoFilter ref="D1:D84" xr:uid="{D125C814-53C2-4852-B499-E8F042823506}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N2:N93">
+    <sortCondition ref="N2:N93"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
